--- a/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
+++ b/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1742,42 +1739,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
@@ -1793,11 +1790,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
+++ b/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1363,7 +1363,7 @@
     <t>Total GNI divided by the population of each country in each year</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
+++ b/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1369,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1792,6 +1795,11 @@
         <v>453</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
+++ b/user-data/gni-pc-usd-current/gni-pc-usd-current.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1378,7 +1378,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7819,7 +7819,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>602.2485260982</v>
+        <v>289.1220045601</v>
       </c>
     </row>
     <row r="437">
@@ -7833,7 +7833,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>603.6329586174</v>
+        <v>308.0864192879</v>
       </c>
     </row>
     <row r="438">
@@ -7847,7 +7847,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>648.0768376611</v>
+        <v>322.3175435758</v>
       </c>
     </row>
     <row r="439">
@@ -7861,7 +7861,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>769.835488129</v>
+        <v>346.4706982614</v>
       </c>
     </row>
     <row r="440">
@@ -7875,7 +7875,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>861.1076069195</v>
+        <v>389.6569182014</v>
       </c>
     </row>
     <row r="441">
@@ -7889,7 +7889,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>944.7429183315</v>
+        <v>449.6502262132</v>
       </c>
     </row>
     <row r="442">
@@ -7903,7 +7903,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>967.6634191119</v>
+        <v>513.1535823465</v>
       </c>
     </row>
     <row r="443">
@@ -7917,7 +7917,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>1088.3787363027</v>
+        <v>601.9561761563</v>
       </c>
     </row>
     <row r="444">
@@ -7931,7 +7931,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>1277.4926375862</v>
+        <v>711.3242898148</v>
       </c>
     </row>
     <row r="445">
@@ -7945,7 +7945,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>1254.8982984131</v>
+        <v>702.1474662627</v>
       </c>
     </row>
     <row r="446">
@@ -7959,7 +7959,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>1263.2514454653</v>
+        <v>744.7349912784</v>
       </c>
     </row>
     <row r="447">
@@ -7973,7 +7973,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>1258.0386607415</v>
+        <v>839.4465962365</v>
       </c>
     </row>
     <row r="448">
@@ -7987,7 +7987,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>1319.4785984703</v>
+        <v>902.078778129</v>
       </c>
     </row>
     <row r="449">
@@ -8001,7 +8001,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>1470.8379126275</v>
+        <v>957.1325502213</v>
       </c>
     </row>
     <row r="450">
@@ -8015,7 +8015,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>289.1220045601</v>
+        <v>545.8359265389</v>
       </c>
     </row>
     <row r="451">
@@ -8029,7 +8029,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>308.0864192879</v>
+        <v>546.607380046</v>
       </c>
     </row>
     <row r="452">
@@ -8043,7 +8043,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>322.3175435758</v>
+        <v>608.2065998039</v>
       </c>
     </row>
     <row r="453">
@@ -8057,7 +8057,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>346.4706982614</v>
+        <v>760.379224755</v>
       </c>
     </row>
     <row r="454">
@@ -8071,7 +8071,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>389.6569182014</v>
+        <v>869.742775316</v>
       </c>
     </row>
     <row r="455">
@@ -8085,7 +8085,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>449.6502262132</v>
+        <v>887.6074942989</v>
       </c>
     </row>
     <row r="456">
@@ -8099,7 +8099,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>513.1535823465</v>
+        <v>951.058016906</v>
       </c>
     </row>
     <row r="457">
@@ -8113,7 +8113,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>601.9561761563</v>
+        <v>1043.6572303353</v>
       </c>
     </row>
     <row r="458">
@@ -8127,7 +8127,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>711.3242898148</v>
+        <v>1169.1570057116</v>
       </c>
     </row>
     <row r="459">
@@ -8141,7 +8141,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>702.1474662627</v>
+        <v>1157.3575931988</v>
       </c>
     </row>
     <row r="460">
@@ -8155,7 +8155,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>744.7349912784</v>
+        <v>1132.5688409081</v>
       </c>
     </row>
     <row r="461">
@@ -8169,7 +8169,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>839.4465962365</v>
+        <v>1242.3805883664</v>
       </c>
     </row>
     <row r="462">
@@ -8183,7 +8183,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>902.078778129</v>
+        <v>1199.4048933367</v>
       </c>
     </row>
     <row r="463">
@@ -8197,7 +8197,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>957.1325502213</v>
+        <v>1300.8077174044</v>
       </c>
     </row>
     <row r="464">
@@ -8211,7 +8211,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>545.8359265389</v>
+        <v>23396.848198065</v>
       </c>
     </row>
     <row r="465">
@@ -8225,7 +8225,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>546.607380046</v>
+        <v>22904.2626094286</v>
       </c>
     </row>
     <row r="466">
@@ -8239,7 +8239,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>608.2065998039</v>
+        <v>23381.2894585804</v>
       </c>
     </row>
     <row r="467">
@@ -8253,7 +8253,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>760.379224755</v>
+        <v>27330.6604369239</v>
       </c>
     </row>
     <row r="468">
@@ -8267,7 +8267,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>869.742775316</v>
+        <v>31137.9590561025</v>
       </c>
     </row>
     <row r="469">
@@ -8281,7 +8281,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>887.6074942989</v>
+        <v>35288.1282495667</v>
       </c>
     </row>
     <row r="470">
@@ -8295,7 +8295,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>951.058016906</v>
+        <v>39601.4737874037</v>
       </c>
     </row>
     <row r="471">
@@ -8309,7 +8309,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>1043.6572303353</v>
+        <v>43674.0800454197</v>
       </c>
     </row>
     <row r="472">
@@ -8323,7 +8323,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>1169.1570057116</v>
+        <v>45692.4253197542</v>
       </c>
     </row>
     <row r="473">
@@ -8337,7 +8337,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>1157.3575931988</v>
+        <v>40044.8178425423</v>
       </c>
     </row>
     <row r="474">
@@ -8351,7 +8351,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>1132.5688409081</v>
+        <v>46544.5448256056</v>
       </c>
     </row>
     <row r="475">
@@ -8365,7 +8365,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>1242.3805883664</v>
+        <v>50837.1774212804</v>
       </c>
     </row>
     <row r="476">
@@ -8379,7 +8379,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>1199.4048933367</v>
+        <v>51470.1600192805</v>
       </c>
     </row>
     <row r="477">
@@ -8393,7 +8393,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>1300.8077174044</v>
+        <v>51192.7424030465</v>
       </c>
     </row>
     <row r="478">
@@ -8407,7 +8407,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>23396.848198065</v>
+        <v>1187.0326576648</v>
       </c>
     </row>
     <row r="479">
@@ -8421,7 +8421,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>22904.2626094286</v>
+        <v>1235.4679804442</v>
       </c>
     </row>
     <row r="480">
@@ -8435,7 +8435,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>23381.2894585804</v>
+        <v>1320.3949756066</v>
       </c>
     </row>
     <row r="481">
@@ -8449,7 +8449,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>27330.6604369239</v>
+        <v>1712.0801391617</v>
       </c>
     </row>
     <row r="482">
@@ -8463,7 +8463,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>31137.9590561025</v>
+        <v>1913.3643616561</v>
       </c>
     </row>
     <row r="483">
@@ -8477,7 +8477,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>35288.1282495667</v>
+        <v>1960.3424649693</v>
       </c>
     </row>
     <row r="484">
@@ -8491,7 +8491,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>39601.4737874037</v>
+        <v>2205.5222434328</v>
       </c>
     </row>
     <row r="485">
@@ -8505,7 +8505,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>43674.0800454197</v>
+        <v>3064.9066140459</v>
       </c>
     </row>
     <row r="486">
@@ -8519,7 +8519,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>45692.4253197542</v>
+        <v>3594.8264297402</v>
       </c>
     </row>
     <row r="487">
@@ -8533,7 +8533,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>40044.8178425423</v>
+        <v>3435.0521562072</v>
       </c>
     </row>
     <row r="488">
@@ -8547,7 +8547,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>46544.5448256056</v>
+        <v>3263.2151923396</v>
       </c>
     </row>
     <row r="489">
@@ -8561,7 +8561,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>50837.1774212804</v>
+        <v>3652.448888608</v>
       </c>
     </row>
     <row r="490">
@@ -8575,7 +8575,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>51470.1600192805</v>
+        <v>3412.1818645189</v>
       </c>
     </row>
     <row r="491">
@@ -8589,7 +8589,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>51192.7424030465</v>
+        <v>3643.0860337906</v>
       </c>
     </row>
     <row r="492">
@@ -8603,7 +8603,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>1187.0326576648</v>
+        <v>247.7619086138</v>
       </c>
     </row>
     <row r="493">
@@ -8617,7 +8617,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>1235.4679804442</v>
+        <v>249.4597404189</v>
       </c>
     </row>
     <row r="494">
@@ -8631,7 +8631,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>1320.3949756066</v>
+        <v>260.7498577476</v>
       </c>
     </row>
     <row r="495">
@@ -8645,7 +8645,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>1712.0801391617</v>
+        <v>296.8864377711</v>
       </c>
     </row>
     <row r="496">
@@ -8659,7 +8659,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>1913.3643616561</v>
+        <v>322.6492478031</v>
       </c>
     </row>
     <row r="497">
@@ -8673,7 +8673,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>1960.3424649693</v>
+        <v>338.3272586992</v>
       </c>
     </row>
     <row r="498">
@@ -8687,7 +8687,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>2205.5222434328</v>
+        <v>362.6518857906</v>
       </c>
     </row>
     <row r="499">
@@ -8701,7 +8701,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>3064.9066140459</v>
+        <v>410.8774865793</v>
       </c>
     </row>
     <row r="500">
@@ -8715,7 +8715,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>3594.8264297402</v>
+        <v>468.9218609995</v>
       </c>
     </row>
     <row r="501">
@@ -8729,7 +8729,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>3435.0521562072</v>
+        <v>459.5630581164</v>
       </c>
     </row>
     <row r="502">
@@ -8743,7 +8743,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>3263.2151923396</v>
+        <v>455.5196882886</v>
       </c>
     </row>
     <row r="503">
@@ -8757,7 +8757,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>3652.448888608</v>
+        <v>493.7623678012</v>
       </c>
     </row>
     <row r="504">
@@ -8771,7 +8771,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>3412.1818645189</v>
+        <v>479.2333463493</v>
       </c>
     </row>
     <row r="505">
@@ -8785,7 +8785,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>3643.0860337906</v>
+        <v>332.9609207747</v>
       </c>
     </row>
     <row r="506">
@@ -8798,9 +8798,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>247.7619086138</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8812,9 +8810,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>249.4597404189</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8826,9 +8822,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>260.7498577476</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8840,9 +8834,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>296.8864377711</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8854,9 +8846,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>322.6492478031</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8868,9 +8858,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>338.3272586992</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8882,9 +8870,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>362.6518857906</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8896,9 +8882,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>410.8774865793</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8910,9 +8894,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>468.9218609995</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8924,9 +8906,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>459.5630581164</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8938,9 +8918,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>455.5196882886</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8952,9 +8930,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>493.7623678012</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -8966,9 +8942,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>479.2333463493</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8980,9 +8954,7 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>332.9609207747</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -8994,7 +8966,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>154.609224793</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -9006,7 +8980,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>158.614554113</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -9018,7 +8994,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>79.5828900094</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9030,7 +9008,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>199.6666990648</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9042,7 +9022,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>364.3621816149</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -9054,7 +9036,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>570.1435310287</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9066,7 +9050,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>736.8263369787</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -9078,7 +9064,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>792.9885490173</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -9090,7 +9078,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>914.3441862059</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -9102,7 +9092,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>779.8483369352</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -9114,7 +9106,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>878.9717372929</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9126,7 +9120,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>980.316573037</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9138,7 +9134,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>982.3519811539</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -9150,7 +9148,9 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>1007.8549187178</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9163,7 +9163,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>154.609224793</v>
+        <v>4946.8683914137</v>
       </c>
     </row>
     <row r="535">
@@ -9177,7 +9177,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>158.614554113</v>
+        <v>4465.4173059913</v>
       </c>
     </row>
     <row r="536">
@@ -9191,7 +9191,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>79.5828900094</v>
+        <v>4306.846244975</v>
       </c>
     </row>
     <row r="537">
@@ -9205,7 +9205,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>199.6666990648</v>
+        <v>4587.3948235202</v>
       </c>
     </row>
     <row r="538">
@@ -9219,7 +9219,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>364.3621816149</v>
+        <v>5739.1965522409</v>
       </c>
     </row>
     <row r="539">
@@ -9233,7 +9233,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>570.1435310287</v>
+        <v>6974.2777906553</v>
       </c>
     </row>
     <row r="540">
@@ -9247,7 +9247,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>736.8263369787</v>
+        <v>8255.79401534</v>
       </c>
     </row>
     <row r="541">
@@ -9261,7 +9261,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>792.9885490173</v>
+        <v>9259.1637164606</v>
       </c>
     </row>
     <row r="542">
@@ -9275,7 +9275,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>914.3441862059</v>
+        <v>9917.8405987363</v>
       </c>
     </row>
     <row r="543">
@@ -9289,7 +9289,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>779.8483369352</v>
+        <v>9485.3207698875</v>
       </c>
     </row>
     <row r="544">
@@ -9303,7 +9303,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>878.9717372929</v>
+        <v>11828.8635605652</v>
       </c>
     </row>
     <row r="545">
@@ -9317,7 +9317,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>980.316573037</v>
+        <v>13706.6585226672</v>
       </c>
     </row>
     <row r="546">
@@ -9331,7 +9331,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>982.3519811539</v>
+        <v>14586.9288960077</v>
       </c>
     </row>
     <row r="547">
@@ -9345,7 +9345,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>1007.8549187178</v>
+        <v>15101.044807326</v>
       </c>
     </row>
     <row r="548">
@@ -9359,7 +9359,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>4946.8683914137</v>
+        <v>937.5636065561</v>
       </c>
     </row>
     <row r="549">
@@ -9373,7 +9373,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>4465.4173059913</v>
+        <v>1026.5597358179</v>
       </c>
     </row>
     <row r="550">
@@ -9387,7 +9387,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>4306.846244975</v>
+        <v>1123.773820681</v>
       </c>
     </row>
     <row r="551">
@@ -9401,7 +9401,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>4587.3948235202</v>
+        <v>1265.7094070165</v>
       </c>
     </row>
     <row r="552">
@@ -9415,7 +9415,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>5739.1965522409</v>
+        <v>1486.4186100342</v>
       </c>
     </row>
     <row r="553">
@@ -9429,7 +9429,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>6974.2777906553</v>
+        <v>1718.7662995122</v>
       </c>
     </row>
     <row r="554">
@@ -9443,7 +9443,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>8255.79401534</v>
+        <v>2065.4223429086</v>
       </c>
     </row>
     <row r="555">
@@ -9457,7 +9457,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>9259.1637164606</v>
+        <v>2657.3638822811</v>
       </c>
     </row>
     <row r="556">
@@ -9471,7 +9471,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>9917.8405987363</v>
+        <v>3435.1661375981</v>
       </c>
     </row>
     <row r="557">
@@ -9485,7 +9485,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>9485.3207698875</v>
+        <v>3742.0939561017</v>
       </c>
     </row>
     <row r="558">
@@ -9499,7 +9499,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>11828.8635605652</v>
+        <v>4413.9851462019</v>
       </c>
     </row>
     <row r="559">
@@ -9513,7 +9513,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>13706.6585226672</v>
+        <v>5395.013875146</v>
       </c>
     </row>
     <row r="560">
@@ -9527,7 +9527,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>14586.9288960077</v>
+        <v>6078.0561118535</v>
       </c>
     </row>
     <row r="561">
@@ -9541,7 +9541,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>15101.044807326</v>
+        <v>6774.9414312868</v>
       </c>
     </row>
     <row r="562">
@@ -9555,7 +9555,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>937.5636065561</v>
+        <v>2449.488426533</v>
       </c>
     </row>
     <row r="563">
@@ -9569,7 +9569,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>1026.5597358179</v>
+        <v>2361.5052590017</v>
       </c>
     </row>
     <row r="564">
@@ -9583,7 +9583,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>1123.773820681</v>
+        <v>2312.2013920268</v>
       </c>
     </row>
     <row r="565">
@@ -9597,7 +9597,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>1265.7094070165</v>
+        <v>2184.0978751435</v>
       </c>
     </row>
     <row r="566">
@@ -9611,7 +9611,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>1486.4186100342</v>
+        <v>2657.3551971151</v>
       </c>
     </row>
     <row r="567">
@@ -9625,7 +9625,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>1718.7662995122</v>
+        <v>3271.001179927</v>
       </c>
     </row>
     <row r="568">
@@ -9639,7 +9639,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>2065.4223429086</v>
+        <v>3582.940040423</v>
       </c>
     </row>
     <row r="569">
@@ -9653,7 +9653,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>2657.3638822811</v>
+        <v>4489.4208532039</v>
       </c>
     </row>
     <row r="570">
@@ -9667,7 +9667,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>3435.1661375981</v>
+        <v>5193.515554668</v>
       </c>
     </row>
     <row r="571">
@@ -9681,7 +9681,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>3742.0939561017</v>
+        <v>4922.3230115888</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>4413.9851462019</v>
+        <v>5938.0385290943</v>
       </c>
     </row>
     <row r="573">
@@ -9709,7 +9709,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>5395.013875146</v>
+        <v>6795.5864288107</v>
       </c>
     </row>
     <row r="574">
@@ -9723,7 +9723,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>6078.0561118535</v>
+        <v>7447.6316422373</v>
       </c>
     </row>
     <row r="575">
@@ -9737,7 +9737,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>6774.9414312868</v>
+        <v>7537.3843123974</v>
       </c>
     </row>
     <row r="576">
@@ -9751,7 +9751,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>2449.488426533</v>
+        <v>382.806046995</v>
       </c>
     </row>
     <row r="577">
@@ -9765,7 +9765,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>2361.5052590017</v>
+        <v>407.4105076609</v>
       </c>
     </row>
     <row r="578">
@@ -9779,7 +9779,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>2312.2013920268</v>
+        <v>442.3956300762</v>
       </c>
     </row>
     <row r="579">
@@ -9793,7 +9793,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>2184.0978751435</v>
+        <v>554.2816428305</v>
       </c>
     </row>
     <row r="580">
@@ -9807,7 +9807,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>2657.3551971151</v>
+        <v>625.1938290607</v>
       </c>
     </row>
     <row r="581">
@@ -9821,7 +9821,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>3271.001179927</v>
+        <v>630.3985755735</v>
       </c>
     </row>
     <row r="582">
@@ -9835,7 +9835,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>3582.940040423</v>
+        <v>656.3778302943</v>
       </c>
     </row>
     <row r="583">
@@ -9849,7 +9849,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>4489.4208532039</v>
+        <v>729.1544215913</v>
       </c>
     </row>
     <row r="584">
@@ -9863,7 +9863,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>5193.515554668</v>
+        <v>803.8765967802</v>
       </c>
     </row>
     <row r="585">
@@ -9877,7 +9877,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>4922.3230115888</v>
+        <v>785.1914182169</v>
       </c>
     </row>
     <row r="586">
@@ -9891,7 +9891,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>5938.0385290943</v>
+        <v>774.9633466602</v>
       </c>
     </row>
     <row r="587">
@@ -9905,7 +9905,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>6795.5864288107</v>
+        <v>835.5532187211</v>
       </c>
     </row>
     <row r="588">
@@ -9919,7 +9919,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>7447.6316422373</v>
+        <v>794.0164551228</v>
       </c>
     </row>
     <row r="589">
@@ -9933,7 +9933,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>7537.3843123974</v>
+        <v>840.1488649739</v>
       </c>
     </row>
     <row r="590">
@@ -9947,7 +9947,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>382.806046995</v>
+        <v>727.7903834811</v>
       </c>
     </row>
     <row r="591">
@@ -9961,7 +9961,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>407.4105076609</v>
+        <v>613.8274329961</v>
       </c>
     </row>
     <row r="592">
@@ -9975,7 +9975,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>442.3956300762</v>
+        <v>661.8274761026</v>
       </c>
     </row>
     <row r="593">
@@ -9989,7 +9989,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>554.2816428305</v>
+        <v>766.542231147</v>
       </c>
     </row>
     <row r="594">
@@ -10003,7 +10003,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>625.1938290607</v>
+        <v>916.730299043</v>
       </c>
     </row>
     <row r="595">
@@ -10017,7 +10017,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>630.3985755735</v>
+        <v>1138.1427499254</v>
       </c>
     </row>
     <row r="596">
@@ -10031,7 +10031,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>656.3778302943</v>
+        <v>1400.0238446049</v>
       </c>
     </row>
     <row r="597">
@@ -10045,7 +10045,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>729.1544215913</v>
+        <v>1536.1818491148</v>
       </c>
     </row>
     <row r="598">
@@ -10059,7 +10059,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>803.8765967802</v>
+        <v>2261.8729469428</v>
       </c>
     </row>
     <row r="599">
@@ -10073,7 +10073,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>785.1914182169</v>
+        <v>1746.8280335687</v>
       </c>
     </row>
     <row r="600">
@@ -10087,7 +10087,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>774.9633466602</v>
+        <v>2194.7550382262</v>
       </c>
     </row>
     <row r="601">
@@ -10101,7 +10101,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>835.5532187211</v>
+        <v>2535.5141816352</v>
       </c>
     </row>
     <row r="602">
@@ -10115,7 +10115,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>794.0164551228</v>
+        <v>2430.6516303359</v>
       </c>
     </row>
     <row r="603">
@@ -10129,7 +10129,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>840.1488649739</v>
+        <v>2484.4441687172</v>
       </c>
     </row>
     <row r="604">
@@ -10143,7 +10143,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>727.7903834811</v>
+        <v>3739.3253481027</v>
       </c>
     </row>
     <row r="605">
@@ -10157,7 +10157,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>613.8274329961</v>
+        <v>3917.8527390639</v>
       </c>
     </row>
     <row r="606">
@@ -10171,7 +10171,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>661.8274761026</v>
+        <v>4007.138816368</v>
       </c>
     </row>
     <row r="607">
@@ -10185,7 +10185,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>766.542231147</v>
+        <v>4013.6838736126</v>
       </c>
     </row>
     <row r="608">
@@ -10199,7 +10199,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>916.730299043</v>
+        <v>4275.7765791497</v>
       </c>
     </row>
     <row r="609">
@@ -10213,7 +10213,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>1138.1427499254</v>
+        <v>4573.096585288</v>
       </c>
     </row>
     <row r="610">
@@ -10227,7 +10227,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>1400.0238446049</v>
+        <v>5129.3741809037</v>
       </c>
     </row>
     <row r="611">
@@ -10241,7 +10241,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>1536.1818491148</v>
+        <v>5703.7838068249</v>
       </c>
     </row>
     <row r="612">
@@ -10255,7 +10255,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>2261.8729469428</v>
+        <v>6489.2892081582</v>
       </c>
     </row>
     <row r="613">
@@ -10269,7 +10269,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>1746.8280335687</v>
+        <v>6150.0419394083</v>
       </c>
     </row>
     <row r="614">
@@ -10283,7 +10283,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>2194.7550382262</v>
+        <v>7613.6115791536</v>
       </c>
     </row>
     <row r="615">
@@ -10297,7 +10297,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>2535.5141816352</v>
+        <v>8579.7931609986</v>
       </c>
     </row>
     <row r="616">
@@ -10311,7 +10311,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>2430.6516303359</v>
+        <v>9270.0618280459</v>
       </c>
     </row>
     <row r="617">
@@ -10325,7 +10325,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>2484.4441687172</v>
+        <v>9959.7898138118</v>
       </c>
     </row>
     <row r="618">
@@ -10339,7 +10339,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>3739.3253481027</v>
+        <v>602.2485260982</v>
       </c>
     </row>
     <row r="619">
@@ -10353,7 +10353,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>3917.8527390639</v>
+        <v>603.6329586174</v>
       </c>
     </row>
     <row r="620">
@@ -10367,7 +10367,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>4007.138816368</v>
+        <v>648.0768376611</v>
       </c>
     </row>
     <row r="621">
@@ -10381,7 +10381,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>4013.6838736126</v>
+        <v>769.835488129</v>
       </c>
     </row>
     <row r="622">
@@ -10395,7 +10395,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>4275.7765791497</v>
+        <v>861.1076069195</v>
       </c>
     </row>
     <row r="623">
@@ -10409,7 +10409,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>4573.096585288</v>
+        <v>944.7429183315</v>
       </c>
     </row>
     <row r="624">
@@ -10423,7 +10423,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>5129.3741809037</v>
+        <v>967.6634191119</v>
       </c>
     </row>
     <row r="625">
@@ -10437,7 +10437,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>5703.7838068249</v>
+        <v>1088.3787363027</v>
       </c>
     </row>
     <row r="626">
@@ -10451,7 +10451,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>6489.2892081582</v>
+        <v>1277.4926375862</v>
       </c>
     </row>
     <row r="627">
@@ -10465,7 +10465,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>6150.0419394083</v>
+        <v>1254.8982984131</v>
       </c>
     </row>
     <row r="628">
@@ -10479,7 +10479,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>7613.6115791536</v>
+        <v>1263.2514454653</v>
       </c>
     </row>
     <row r="629">
@@ -10493,7 +10493,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>8579.7931609986</v>
+        <v>1258.0386607415</v>
       </c>
     </row>
     <row r="630">
@@ -10507,7 +10507,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>9270.0618280459</v>
+        <v>1319.4785984703</v>
       </c>
     </row>
     <row r="631">
@@ -10521,7 +10521,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>9959.7898138118</v>
+        <v>1470.8379126275</v>
       </c>
     </row>
     <row r="632">
@@ -40445,7 +40445,7 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>616.5532199262</v>
+        <v>26447.1644053096</v>
       </c>
     </row>
     <row r="2803">
@@ -40459,7 +40459,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>767.0373865551</v>
+        <v>26100.4488302904</v>
       </c>
     </row>
     <row r="2804">
@@ -40473,7 +40473,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>866.9030865826</v>
+        <v>28638.1384930379</v>
       </c>
     </row>
     <row r="2805">
@@ -40487,7 +40487,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>1036.3709682837</v>
+        <v>33103.4402285947</v>
       </c>
     </row>
     <row r="2806">
@@ -40501,7 +40501,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>1350.5191935572</v>
+        <v>38972.0227769248</v>
       </c>
     </row>
     <row r="2807">
@@ -40515,7 +40515,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>1807.8069610011</v>
+        <v>40858.7868262101</v>
       </c>
     </row>
     <row r="2808">
@@ -40529,7 +40529,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>2266.212844174</v>
+        <v>42886.218211568</v>
       </c>
     </row>
     <row r="2809">
@@ -40543,7 +40543,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>3023.0910558845</v>
+        <v>48781.7979522447</v>
       </c>
     </row>
     <row r="2810">
@@ -40557,7 +40557,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>3857.7376551617</v>
+        <v>45247.1439519103</v>
       </c>
     </row>
     <row r="2811">
@@ -40571,7 +40571,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>2492.5032516671</v>
+        <v>37139.0258279759</v>
       </c>
     </row>
     <row r="2812">
@@ -40585,7 +40585,7 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>2930.1929118152</v>
+        <v>38786.060017973</v>
       </c>
     </row>
     <row r="2813">
@@ -40599,7 +40599,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>3522.5932643564</v>
+        <v>41446.4882247907</v>
       </c>
     </row>
     <row r="2814">
@@ -40613,7 +40613,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>3961.1741198817</v>
+        <v>40923.3359866265</v>
       </c>
     </row>
     <row r="2815">
@@ -40627,7 +40627,7 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>3978.4698040871</v>
+        <v>41467.2523719292</v>
       </c>
     </row>
     <row r="2816">
@@ -40641,7 +40641,7 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>26447.1644053096</v>
+        <v>616.5532199262</v>
       </c>
     </row>
     <row r="2817">
@@ -40655,7 +40655,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>26100.4488302904</v>
+        <v>767.0373865551</v>
       </c>
     </row>
     <row r="2818">
@@ -40669,7 +40669,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>28638.1384930379</v>
+        <v>866.9030865826</v>
       </c>
     </row>
     <row r="2819">
@@ -40683,7 +40683,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>33103.4402285947</v>
+        <v>1036.3709682837</v>
       </c>
     </row>
     <row r="2820">
@@ -40697,7 +40697,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>38972.0227769248</v>
+        <v>1350.5191935572</v>
       </c>
     </row>
     <row r="2821">
@@ -40711,7 +40711,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>40858.7868262101</v>
+        <v>1807.8069610011</v>
       </c>
     </row>
     <row r="2822">
@@ -40725,7 +40725,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>42886.218211568</v>
+        <v>2266.212844174</v>
       </c>
     </row>
     <row r="2823">
@@ -40739,7 +40739,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>48781.7979522447</v>
+        <v>3023.0910558845</v>
       </c>
     </row>
     <row r="2824">
@@ -40753,7 +40753,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>45247.1439519103</v>
+        <v>3857.7376551617</v>
       </c>
     </row>
     <row r="2825">
@@ -40767,7 +40767,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>37139.0258279759</v>
+        <v>2492.5032516671</v>
       </c>
     </row>
     <row r="2826">
@@ -40781,7 +40781,7 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>38786.060017973</v>
+        <v>2930.1929118152</v>
       </c>
     </row>
     <row r="2827">
@@ -40795,7 +40795,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>41446.4882247907</v>
+        <v>3522.5932643564</v>
       </c>
     </row>
     <row r="2828">
@@ -40809,7 +40809,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>40923.3359866265</v>
+        <v>3961.1741198817</v>
       </c>
     </row>
     <row r="2829">
@@ -40823,7 +40823,7 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v>41467.2523719292</v>
+        <v>3978.4698040871</v>
       </c>
     </row>
     <row r="2830">
@@ -44284,46 +44284,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>602.2485260982</v>
+        <v>289.1220045601</v>
       </c>
       <c r="D33" t="n">
-        <v>603.6329586174</v>
+        <v>308.0864192879</v>
       </c>
       <c r="E33" t="n">
-        <v>648.0768376611</v>
+        <v>322.3175435758</v>
       </c>
       <c r="F33" t="n">
-        <v>769.835488129</v>
+        <v>346.4706982614</v>
       </c>
       <c r="G33" t="n">
-        <v>861.1076069195</v>
+        <v>389.6569182014</v>
       </c>
       <c r="H33" t="n">
-        <v>944.7429183315</v>
+        <v>449.6502262132</v>
       </c>
       <c r="I33" t="n">
-        <v>967.6634191119</v>
+        <v>513.1535823465</v>
       </c>
       <c r="J33" t="n">
-        <v>1088.3787363027</v>
+        <v>601.9561761563</v>
       </c>
       <c r="K33" t="n">
-        <v>1277.4926375862</v>
+        <v>711.3242898148</v>
       </c>
       <c r="L33" t="n">
-        <v>1254.8982984131</v>
+        <v>702.1474662627</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.2514454653</v>
+        <v>744.7349912784</v>
       </c>
       <c r="N33" t="n">
-        <v>1258.0386607415</v>
+        <v>839.4465962365</v>
       </c>
       <c r="O33" t="n">
-        <v>1319.4785984703</v>
+        <v>902.078778129</v>
       </c>
       <c r="P33" t="n">
-        <v>1470.8379126275</v>
+        <v>957.1325502213</v>
       </c>
     </row>
     <row r="34">
@@ -44334,46 +44334,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>289.1220045601</v>
+        <v>545.8359265389</v>
       </c>
       <c r="D34" t="n">
-        <v>308.0864192879</v>
+        <v>546.607380046</v>
       </c>
       <c r="E34" t="n">
-        <v>322.3175435758</v>
+        <v>608.2065998039</v>
       </c>
       <c r="F34" t="n">
-        <v>346.4706982614</v>
+        <v>760.379224755</v>
       </c>
       <c r="G34" t="n">
-        <v>389.6569182014</v>
+        <v>869.742775316</v>
       </c>
       <c r="H34" t="n">
-        <v>449.6502262132</v>
+        <v>887.6074942989</v>
       </c>
       <c r="I34" t="n">
-        <v>513.1535823465</v>
+        <v>951.058016906</v>
       </c>
       <c r="J34" t="n">
-        <v>601.9561761563</v>
+        <v>1043.6572303353</v>
       </c>
       <c r="K34" t="n">
-        <v>711.3242898148</v>
+        <v>1169.1570057116</v>
       </c>
       <c r="L34" t="n">
-        <v>702.1474662627</v>
+        <v>1157.3575931988</v>
       </c>
       <c r="M34" t="n">
-        <v>744.7349912784</v>
+        <v>1132.5688409081</v>
       </c>
       <c r="N34" t="n">
-        <v>839.4465962365</v>
+        <v>1242.3805883664</v>
       </c>
       <c r="O34" t="n">
-        <v>902.078778129</v>
+        <v>1199.4048933367</v>
       </c>
       <c r="P34" t="n">
-        <v>957.1325502213</v>
+        <v>1300.8077174044</v>
       </c>
     </row>
     <row r="35">
@@ -44384,46 +44384,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>545.8359265389</v>
+        <v>23396.848198065</v>
       </c>
       <c r="D35" t="n">
-        <v>546.607380046</v>
+        <v>22904.2626094286</v>
       </c>
       <c r="E35" t="n">
-        <v>608.2065998039</v>
+        <v>23381.2894585804</v>
       </c>
       <c r="F35" t="n">
-        <v>760.379224755</v>
+        <v>27330.6604369239</v>
       </c>
       <c r="G35" t="n">
-        <v>869.742775316</v>
+        <v>31137.9590561025</v>
       </c>
       <c r="H35" t="n">
-        <v>887.6074942989</v>
+        <v>35288.1282495667</v>
       </c>
       <c r="I35" t="n">
-        <v>951.058016906</v>
+        <v>39601.4737874037</v>
       </c>
       <c r="J35" t="n">
-        <v>1043.6572303353</v>
+        <v>43674.0800454197</v>
       </c>
       <c r="K35" t="n">
-        <v>1169.1570057116</v>
+        <v>45692.4253197542</v>
       </c>
       <c r="L35" t="n">
-        <v>1157.3575931988</v>
+        <v>40044.8178425423</v>
       </c>
       <c r="M35" t="n">
-        <v>1132.5688409081</v>
+        <v>46544.5448256056</v>
       </c>
       <c r="N35" t="n">
-        <v>1242.3805883664</v>
+        <v>50837.1774212804</v>
       </c>
       <c r="O35" t="n">
-        <v>1199.4048933367</v>
+        <v>51470.1600192805</v>
       </c>
       <c r="P35" t="n">
-        <v>1300.8077174044</v>
+        <v>51192.7424030465</v>
       </c>
     </row>
     <row r="36">
@@ -44434,46 +44434,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>23396.848198065</v>
+        <v>1187.0326576648</v>
       </c>
       <c r="D36" t="n">
-        <v>22904.2626094286</v>
+        <v>1235.4679804442</v>
       </c>
       <c r="E36" t="n">
-        <v>23381.2894585804</v>
+        <v>1320.3949756066</v>
       </c>
       <c r="F36" t="n">
-        <v>27330.6604369239</v>
+        <v>1712.0801391617</v>
       </c>
       <c r="G36" t="n">
-        <v>31137.9590561025</v>
+        <v>1913.3643616561</v>
       </c>
       <c r="H36" t="n">
-        <v>35288.1282495667</v>
+        <v>1960.3424649693</v>
       </c>
       <c r="I36" t="n">
-        <v>39601.4737874037</v>
+        <v>2205.5222434328</v>
       </c>
       <c r="J36" t="n">
-        <v>43674.0800454197</v>
+        <v>3064.9066140459</v>
       </c>
       <c r="K36" t="n">
-        <v>45692.4253197542</v>
+        <v>3594.8264297402</v>
       </c>
       <c r="L36" t="n">
-        <v>40044.8178425423</v>
+        <v>3435.0521562072</v>
       </c>
       <c r="M36" t="n">
-        <v>46544.5448256056</v>
+        <v>3263.2151923396</v>
       </c>
       <c r="N36" t="n">
-        <v>50837.1774212804</v>
+        <v>3652.448888608</v>
       </c>
       <c r="O36" t="n">
-        <v>51470.1600192805</v>
+        <v>3412.1818645189</v>
       </c>
       <c r="P36" t="n">
-        <v>51192.7424030465</v>
+        <v>3643.0860337906</v>
       </c>
     </row>
     <row r="37">
@@ -44484,46 +44484,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1187.0326576648</v>
+        <v>247.7619086138</v>
       </c>
       <c r="D37" t="n">
-        <v>1235.4679804442</v>
+        <v>249.4597404189</v>
       </c>
       <c r="E37" t="n">
-        <v>1320.3949756066</v>
+        <v>260.7498577476</v>
       </c>
       <c r="F37" t="n">
-        <v>1712.0801391617</v>
+        <v>296.8864377711</v>
       </c>
       <c r="G37" t="n">
-        <v>1913.3643616561</v>
+        <v>322.6492478031</v>
       </c>
       <c r="H37" t="n">
-        <v>1960.3424649693</v>
+        <v>338.3272586992</v>
       </c>
       <c r="I37" t="n">
-        <v>2205.5222434328</v>
+        <v>362.6518857906</v>
       </c>
       <c r="J37" t="n">
-        <v>3064.9066140459</v>
+        <v>410.8774865793</v>
       </c>
       <c r="K37" t="n">
-        <v>3594.8264297402</v>
+        <v>468.9218609995</v>
       </c>
       <c r="L37" t="n">
-        <v>3435.0521562072</v>
+        <v>459.5630581164</v>
       </c>
       <c r="M37" t="n">
-        <v>3263.2151923396</v>
+        <v>455.5196882886</v>
       </c>
       <c r="N37" t="n">
-        <v>3652.448888608</v>
+        <v>493.7623678012</v>
       </c>
       <c r="O37" t="n">
-        <v>3412.1818645189</v>
+        <v>479.2333463493</v>
       </c>
       <c r="P37" t="n">
-        <v>3643.0860337906</v>
+        <v>332.9609207747</v>
       </c>
     </row>
     <row r="38">
@@ -44533,48 +44533,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>247.7619086138</v>
-      </c>
-      <c r="D38" t="n">
-        <v>249.4597404189</v>
-      </c>
-      <c r="E38" t="n">
-        <v>260.7498577476</v>
-      </c>
-      <c r="F38" t="n">
-        <v>296.8864377711</v>
-      </c>
-      <c r="G38" t="n">
-        <v>322.6492478031</v>
-      </c>
-      <c r="H38" t="n">
-        <v>338.3272586992</v>
-      </c>
-      <c r="I38" t="n">
-        <v>362.6518857906</v>
-      </c>
-      <c r="J38" t="n">
-        <v>410.8774865793</v>
-      </c>
-      <c r="K38" t="n">
-        <v>468.9218609995</v>
-      </c>
-      <c r="L38" t="n">
-        <v>459.5630581164</v>
-      </c>
-      <c r="M38" t="n">
-        <v>455.5196882886</v>
-      </c>
-      <c r="N38" t="n">
-        <v>493.7623678012</v>
-      </c>
-      <c r="O38" t="n">
-        <v>479.2333463493</v>
-      </c>
-      <c r="P38" t="n">
-        <v>332.9609207747</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -44583,20 +44555,48 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>154.609224793</v>
+      </c>
+      <c r="D39" t="n">
+        <v>158.614554113</v>
+      </c>
+      <c r="E39" t="n">
+        <v>79.5828900094</v>
+      </c>
+      <c r="F39" t="n">
+        <v>199.6666990648</v>
+      </c>
+      <c r="G39" t="n">
+        <v>364.3621816149</v>
+      </c>
+      <c r="H39" t="n">
+        <v>570.1435310287</v>
+      </c>
+      <c r="I39" t="n">
+        <v>736.8263369787</v>
+      </c>
+      <c r="J39" t="n">
+        <v>792.9885490173</v>
+      </c>
+      <c r="K39" t="n">
+        <v>914.3441862059</v>
+      </c>
+      <c r="L39" t="n">
+        <v>779.8483369352</v>
+      </c>
+      <c r="M39" t="n">
+        <v>878.9717372929</v>
+      </c>
+      <c r="N39" t="n">
+        <v>980.316573037</v>
+      </c>
+      <c r="O39" t="n">
+        <v>982.3519811539</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1007.8549187178</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -44606,46 +44606,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>154.609224793</v>
+        <v>4946.8683914137</v>
       </c>
       <c r="D40" t="n">
-        <v>158.614554113</v>
+        <v>4465.4173059913</v>
       </c>
       <c r="E40" t="n">
-        <v>79.5828900094</v>
+        <v>4306.846244975</v>
       </c>
       <c r="F40" t="n">
-        <v>199.6666990648</v>
+        <v>4587.3948235202</v>
       </c>
       <c r="G40" t="n">
-        <v>364.3621816149</v>
+        <v>5739.1965522409</v>
       </c>
       <c r="H40" t="n">
-        <v>570.1435310287</v>
+        <v>6974.2777906553</v>
       </c>
       <c r="I40" t="n">
-        <v>736.8263369787</v>
+        <v>8255.79401534</v>
       </c>
       <c r="J40" t="n">
-        <v>792.9885490173</v>
+        <v>9259.1637164606</v>
       </c>
       <c r="K40" t="n">
-        <v>914.3441862059</v>
+        <v>9917.8405987363</v>
       </c>
       <c r="L40" t="n">
-        <v>779.8483369352</v>
+        <v>9485.3207698875</v>
       </c>
       <c r="M40" t="n">
-        <v>878.9717372929</v>
+        <v>11828.8635605652</v>
       </c>
       <c r="N40" t="n">
-        <v>980.316573037</v>
+        <v>13706.6585226672</v>
       </c>
       <c r="O40" t="n">
-        <v>982.3519811539</v>
+        <v>14586.9288960077</v>
       </c>
       <c r="P40" t="n">
-        <v>1007.8549187178</v>
+        <v>15101.044807326</v>
       </c>
     </row>
     <row r="41">
@@ -44656,46 +44656,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>4946.8683914137</v>
+        <v>937.5636065561</v>
       </c>
       <c r="D41" t="n">
-        <v>4465.4173059913</v>
+        <v>1026.5597358179</v>
       </c>
       <c r="E41" t="n">
-        <v>4306.846244975</v>
+        <v>1123.773820681</v>
       </c>
       <c r="F41" t="n">
-        <v>4587.3948235202</v>
+        <v>1265.7094070165</v>
       </c>
       <c r="G41" t="n">
-        <v>5739.1965522409</v>
+        <v>1486.4186100342</v>
       </c>
       <c r="H41" t="n">
-        <v>6974.2777906553</v>
+        <v>1718.7662995122</v>
       </c>
       <c r="I41" t="n">
-        <v>8255.79401534</v>
+        <v>2065.4223429086</v>
       </c>
       <c r="J41" t="n">
-        <v>9259.1637164606</v>
+        <v>2657.3638822811</v>
       </c>
       <c r="K41" t="n">
-        <v>9917.8405987363</v>
+        <v>3435.1661375981</v>
       </c>
       <c r="L41" t="n">
-        <v>9485.3207698875</v>
+        <v>3742.0939561017</v>
       </c>
       <c r="M41" t="n">
-        <v>11828.8635605652</v>
+        <v>4413.9851462019</v>
       </c>
       <c r="N41" t="n">
-        <v>13706.6585226672</v>
+        <v>5395.013875146</v>
       </c>
       <c r="O41" t="n">
-        <v>14586.9288960077</v>
+        <v>6078.0561118535</v>
       </c>
       <c r="P41" t="n">
-        <v>15101.044807326</v>
+        <v>6774.9414312868</v>
       </c>
     </row>
     <row r="42">
@@ -44706,46 +44706,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>937.5636065561</v>
+        <v>2449.488426533</v>
       </c>
       <c r="D42" t="n">
-        <v>1026.5597358179</v>
+        <v>2361.5052590017</v>
       </c>
       <c r="E42" t="n">
-        <v>1123.773820681</v>
+        <v>2312.2013920268</v>
       </c>
       <c r="F42" t="n">
-        <v>1265.7094070165</v>
+        <v>2184.0978751435</v>
       </c>
       <c r="G42" t="n">
-        <v>1486.4186100342</v>
+        <v>2657.3551971151</v>
       </c>
       <c r="H42" t="n">
-        <v>1718.7662995122</v>
+        <v>3271.001179927</v>
       </c>
       <c r="I42" t="n">
-        <v>2065.4223429086</v>
+        <v>3582.940040423</v>
       </c>
       <c r="J42" t="n">
-        <v>2657.3638822811</v>
+        <v>4489.4208532039</v>
       </c>
       <c r="K42" t="n">
-        <v>3435.1661375981</v>
+        <v>5193.515554668</v>
       </c>
       <c r="L42" t="n">
-        <v>3742.0939561017</v>
+        <v>4922.3230115888</v>
       </c>
       <c r="M42" t="n">
-        <v>4413.9851462019</v>
+        <v>5938.0385290943</v>
       </c>
       <c r="N42" t="n">
-        <v>5395.013875146</v>
+        <v>6795.5864288107</v>
       </c>
       <c r="O42" t="n">
-        <v>6078.0561118535</v>
+        <v>7447.6316422373</v>
       </c>
       <c r="P42" t="n">
-        <v>6774.9414312868</v>
+        <v>7537.3843123974</v>
       </c>
     </row>
     <row r="43">
@@ -44756,46 +44756,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>2449.488426533</v>
+        <v>382.806046995</v>
       </c>
       <c r="D43" t="n">
-        <v>2361.5052590017</v>
+        <v>407.4105076609</v>
       </c>
       <c r="E43" t="n">
-        <v>2312.2013920268</v>
+        <v>442.3956300762</v>
       </c>
       <c r="F43" t="n">
-        <v>2184.0978751435</v>
+        <v>554.2816428305</v>
       </c>
       <c r="G43" t="n">
-        <v>2657.3551971151</v>
+        <v>625.1938290607</v>
       </c>
       <c r="H43" t="n">
-        <v>3271.001179927</v>
+        <v>630.3985755735</v>
       </c>
       <c r="I43" t="n">
-        <v>3582.940040423</v>
+        <v>656.3778302943</v>
       </c>
       <c r="J43" t="n">
-        <v>4489.4208532039</v>
+        <v>729.1544215913</v>
       </c>
       <c r="K43" t="n">
-        <v>5193.515554668</v>
+        <v>803.8765967802</v>
       </c>
       <c r="L43" t="n">
-        <v>4922.3230115888</v>
+        <v>785.1914182169</v>
       </c>
       <c r="M43" t="n">
-        <v>5938.0385290943</v>
+        <v>774.9633466602</v>
       </c>
       <c r="N43" t="n">
-        <v>6795.5864288107</v>
+        <v>835.5532187211</v>
       </c>
       <c r="O43" t="n">
-        <v>7447.6316422373</v>
+        <v>794.0164551228</v>
       </c>
       <c r="P43" t="n">
-        <v>7537.3843123974</v>
+        <v>840.1488649739</v>
       </c>
     </row>
     <row r="44">
@@ -44806,46 +44806,46 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>382.806046995</v>
+        <v>727.7903834811</v>
       </c>
       <c r="D44" t="n">
-        <v>407.4105076609</v>
+        <v>613.8274329961</v>
       </c>
       <c r="E44" t="n">
-        <v>442.3956300762</v>
+        <v>661.8274761026</v>
       </c>
       <c r="F44" t="n">
-        <v>554.2816428305</v>
+        <v>766.542231147</v>
       </c>
       <c r="G44" t="n">
-        <v>625.1938290607</v>
+        <v>916.730299043</v>
       </c>
       <c r="H44" t="n">
-        <v>630.3985755735</v>
+        <v>1138.1427499254</v>
       </c>
       <c r="I44" t="n">
-        <v>656.3778302943</v>
+        <v>1400.0238446049</v>
       </c>
       <c r="J44" t="n">
-        <v>729.1544215913</v>
+        <v>1536.1818491148</v>
       </c>
       <c r="K44" t="n">
-        <v>803.8765967802</v>
+        <v>2261.8729469428</v>
       </c>
       <c r="L44" t="n">
-        <v>785.1914182169</v>
+        <v>1746.8280335687</v>
       </c>
       <c r="M44" t="n">
-        <v>774.9633466602</v>
+        <v>2194.7550382262</v>
       </c>
       <c r="N44" t="n">
-        <v>835.5532187211</v>
+        <v>2535.5141816352</v>
       </c>
       <c r="O44" t="n">
-        <v>794.0164551228</v>
+        <v>2430.6516303359</v>
       </c>
       <c r="P44" t="n">
-        <v>840.1488649739</v>
+        <v>2484.4441687172</v>
       </c>
     </row>
     <row r="45">
@@ -44856,46 +44856,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>727.7903834811</v>
+        <v>3739.3253481027</v>
       </c>
       <c r="D45" t="n">
-        <v>613.8274329961</v>
+        <v>3917.8527390639</v>
       </c>
       <c r="E45" t="n">
-        <v>661.8274761026</v>
+        <v>4007.138816368</v>
       </c>
       <c r="F45" t="n">
-        <v>766.542231147</v>
+        <v>4013.6838736126</v>
       </c>
       <c r="G45" t="n">
-        <v>916.730299043</v>
+        <v>4275.7765791497</v>
       </c>
       <c r="H45" t="n">
-        <v>1138.1427499254</v>
+        <v>4573.096585288</v>
       </c>
       <c r="I45" t="n">
-        <v>1400.0238446049</v>
+        <v>5129.3741809037</v>
       </c>
       <c r="J45" t="n">
-        <v>1536.1818491148</v>
+        <v>5703.7838068249</v>
       </c>
       <c r="K45" t="n">
-        <v>2261.8729469428</v>
+        <v>6489.2892081582</v>
       </c>
       <c r="L45" t="n">
-        <v>1746.8280335687</v>
+        <v>6150.0419394083</v>
       </c>
       <c r="M45" t="n">
-        <v>2194.7550382262</v>
+        <v>7613.6115791536</v>
       </c>
       <c r="N45" t="n">
-        <v>2535.5141816352</v>
+        <v>8579.7931609986</v>
       </c>
       <c r="O45" t="n">
-        <v>2430.6516303359</v>
+        <v>9270.0618280459</v>
       </c>
       <c r="P45" t="n">
-        <v>2484.4441687172</v>
+        <v>9959.7898138118</v>
       </c>
     </row>
     <row r="46">
@@ -44906,46 +44906,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>3739.3253481027</v>
+        <v>602.2485260982</v>
       </c>
       <c r="D46" t="n">
-        <v>3917.8527390639</v>
+        <v>603.6329586174</v>
       </c>
       <c r="E46" t="n">
-        <v>4007.138816368</v>
+        <v>648.0768376611</v>
       </c>
       <c r="F46" t="n">
-        <v>4013.6838736126</v>
+        <v>769.835488129</v>
       </c>
       <c r="G46" t="n">
-        <v>4275.7765791497</v>
+        <v>861.1076069195</v>
       </c>
       <c r="H46" t="n">
-        <v>4573.096585288</v>
+        <v>944.7429183315</v>
       </c>
       <c r="I46" t="n">
-        <v>5129.3741809037</v>
+        <v>967.6634191119</v>
       </c>
       <c r="J46" t="n">
-        <v>5703.7838068249</v>
+        <v>1088.3787363027</v>
       </c>
       <c r="K46" t="n">
-        <v>6489.2892081582</v>
+        <v>1277.4926375862</v>
       </c>
       <c r="L46" t="n">
-        <v>6150.0419394083</v>
+        <v>1254.8982984131</v>
       </c>
       <c r="M46" t="n">
-        <v>7613.6115791536</v>
+        <v>1263.2514454653</v>
       </c>
       <c r="N46" t="n">
-        <v>8579.7931609986</v>
+        <v>1258.0386607415</v>
       </c>
       <c r="O46" t="n">
-        <v>9270.0618280459</v>
+        <v>1319.4785984703</v>
       </c>
       <c r="P46" t="n">
-        <v>9959.7898138118</v>
+        <v>1470.8379126275</v>
       </c>
     </row>
     <row r="47">
@@ -52236,46 +52236,46 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>616.5532199262</v>
+        <v>26447.1644053096</v>
       </c>
       <c r="D202" t="n">
-        <v>767.0373865551</v>
+        <v>26100.4488302904</v>
       </c>
       <c r="E202" t="n">
-        <v>866.9030865826</v>
+        <v>28638.1384930379</v>
       </c>
       <c r="F202" t="n">
-        <v>1036.3709682837</v>
+        <v>33103.4402285947</v>
       </c>
       <c r="G202" t="n">
-        <v>1350.5191935572</v>
+        <v>38972.0227769248</v>
       </c>
       <c r="H202" t="n">
-        <v>1807.8069610011</v>
+        <v>40858.7868262101</v>
       </c>
       <c r="I202" t="n">
-        <v>2266.212844174</v>
+        <v>42886.218211568</v>
       </c>
       <c r="J202" t="n">
-        <v>3023.0910558845</v>
+        <v>48781.7979522447</v>
       </c>
       <c r="K202" t="n">
-        <v>3857.7376551617</v>
+        <v>45247.1439519103</v>
       </c>
       <c r="L202" t="n">
-        <v>2492.5032516671</v>
+        <v>37139.0258279759</v>
       </c>
       <c r="M202" t="n">
-        <v>2930.1929118152</v>
+        <v>38786.060017973</v>
       </c>
       <c r="N202" t="n">
-        <v>3522.5932643564</v>
+        <v>41446.4882247907</v>
       </c>
       <c r="O202" t="n">
-        <v>3961.1741198817</v>
+        <v>40923.3359866265</v>
       </c>
       <c r="P202" t="n">
-        <v>3978.4698040871</v>
+        <v>41467.2523719292</v>
       </c>
     </row>
     <row r="203">
@@ -52286,46 +52286,46 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>26447.1644053096</v>
+        <v>616.5532199262</v>
       </c>
       <c r="D203" t="n">
-        <v>26100.4488302904</v>
+        <v>767.0373865551</v>
       </c>
       <c r="E203" t="n">
-        <v>28638.1384930379</v>
+        <v>866.9030865826</v>
       </c>
       <c r="F203" t="n">
-        <v>33103.4402285947</v>
+        <v>1036.3709682837</v>
       </c>
       <c r="G203" t="n">
-        <v>38972.0227769248</v>
+        <v>1350.5191935572</v>
       </c>
       <c r="H203" t="n">
-        <v>40858.7868262101</v>
+        <v>1807.8069610011</v>
       </c>
       <c r="I203" t="n">
-        <v>42886.218211568</v>
+        <v>2266.212844174</v>
       </c>
       <c r="J203" t="n">
-        <v>48781.7979522447</v>
+        <v>3023.0910558845</v>
       </c>
       <c r="K203" t="n">
-        <v>45247.1439519103</v>
+        <v>3857.7376551617</v>
       </c>
       <c r="L203" t="n">
-        <v>37139.0258279759</v>
+        <v>2492.5032516671</v>
       </c>
       <c r="M203" t="n">
-        <v>38786.060017973</v>
+        <v>2930.1929118152</v>
       </c>
       <c r="N203" t="n">
-        <v>41446.4882247907</v>
+        <v>3522.5932643564</v>
       </c>
       <c r="O203" t="n">
-        <v>40923.3359866265</v>
+        <v>3961.1741198817</v>
       </c>
       <c r="P203" t="n">
-        <v>41467.2523719292</v>
+        <v>3978.4698040871</v>
       </c>
     </row>
     <row r="204">
